--- a/ExcelExamples/bin/Debug/ExcelFile/Sample.xlsx
+++ b/ExcelExamples/bin/Debug/ExcelFile/Sample.xlsx
@@ -48,53 +48,251 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="11">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="10">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="10">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf fillId="2" borderId="1"/>
+    <x:xf fillId="3" borderId="2"/>
+    <x:xf fillId="4" borderId="3"/>
+    <x:xf fillId="5" borderId="4"/>
+    <x:xf fillId="6" borderId="5"/>
+    <x:xf fillId="7" borderId="6"/>
+    <x:xf fillId="8" borderId="7"/>
+    <x:xf fillId="9" borderId="8"/>
+    <x:xf fillId="10" borderId="9"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,54 +591,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C22B18-D7D1-463E-BF12-C0C8C3EEA58C}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F4C22B18-D7D1-463E-BF12-C0C8C3EEA58C}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:C3"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A4" sqref="A4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0 111111111</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1 111111111</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>2 111111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="4" t="s">
+        <x:v>3 111111111</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>4 111111111</x:v>
+      </x:c>
+      <x:c r="C2" s="6">
+        <x:v>33 111111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="7" t="s">
+        <x:v>5 111111111</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>4 111111111</x:v>
+      </x:c>
+      <x:c r="C3" s="9">
+        <x:v>19 111111111</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
--- a/ExcelExamples/bin/Debug/ExcelFile/Sample.xlsx
+++ b/ExcelExamples/bin/Debug/ExcelFile/Sample.xlsx
@@ -48,251 +48,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:fonts count="1" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="11">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-  </x:fills>
-  <x:borders count="10">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="10">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf fillId="2" borderId="1"/>
-    <x:xf fillId="3" borderId="2"/>
-    <x:xf fillId="4" borderId="3"/>
-    <x:xf fillId="5" borderId="4"/>
-    <x:xf fillId="6" borderId="5"/>
-    <x:xf fillId="7" borderId="6"/>
-    <x:xf fillId="8" borderId="7"/>
-    <x:xf fillId="9" borderId="8"/>
-    <x:xf fillId="10" borderId="9"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:dxfs count="0"/>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,54 +393,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F4C22B18-D7D1-463E-BF12-C0C8C3EEA58C}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:C3"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A4" sqref="A4"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0 111111111</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1 111111111</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>2 111111111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="4" t="s">
-        <x:v>3 111111111</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s">
-        <x:v>4 111111111</x:v>
-      </x:c>
-      <x:c r="C2" s="6">
-        <x:v>33 111111111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="7" t="s">
-        <x:v>5 111111111</x:v>
-      </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>4 111111111</x:v>
-      </x:c>
-      <x:c r="C3" s="9">
-        <x:v>19 111111111</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C22B18-D7D1-463E-BF12-C0C8C3EEA58C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>